--- a/data/f02.xlsx
+++ b/data/f02.xlsx
@@ -60,6 +60,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我</t>
     </r>
     <r>
@@ -137,6 +144,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我</t>
     </r>
     <r>
@@ -214,6 +228,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请坐</t>
     </r>
     <r>
@@ -291,6 +312,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这本书</t>
     </r>
     <r>
@@ -368,6 +396,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我</t>
     </r>
     <r>
@@ -445,6 +480,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我在</t>
     </r>
     <r>
@@ -522,6 +564,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这间房子很</t>
     </r>
     <r>
@@ -602,6 +651,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>啊</t>
     </r>
     <r>
@@ -668,6 +725,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你</t>
     </r>
     <r>
@@ -745,6 +809,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他从房间</t>
     </r>
     <r>
@@ -822,6 +893,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">请给我一点水。(Qǐng gěi wǒ yī </t>
     </r>
     <r>
@@ -878,6 +956,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你几点</t>
     </r>
     <r>
@@ -934,6 +1019,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>今</t>
     </r>
     <r>
@@ -1011,6 +1103,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请</t>
     </r>
     <r>
@@ -1088,6 +1187,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请</t>
     </r>
     <r>
@@ -1165,6 +1271,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请</t>
     </r>
     <r>
@@ -1242,6 +1355,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我</t>
     </r>
     <r>
@@ -1319,6 +1439,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我想去，</t>
     </r>
     <r>
@@ -1396,6 +1523,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>谢</t>
     </r>
     <r>
@@ -1462,6 +1597,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他看</t>
     </r>
     <r>
@@ -1518,6 +1660,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我</t>
     </r>
     <r>
@@ -1595,6 +1744,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>给我</t>
     </r>
     <r>
@@ -1672,6 +1828,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>她</t>
     </r>
     <r>
@@ -1749,6 +1912,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我</t>
     </r>
     <r>
@@ -1826,6 +1996,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你在我</t>
     </r>
     <r>
@@ -1903,6 +2080,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他是我</t>
     </r>
     <r>
@@ -1980,6 +2164,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这里的人很</t>
     </r>
     <r>
@@ -2057,6 +2248,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个词的</t>
     </r>
     <r>
@@ -2134,6 +2332,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>别</t>
     </r>
     <r>
@@ -2200,6 +2406,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这是一个学校</t>
     </r>
     <r>
@@ -2277,6 +2490,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他说了很多</t>
     </r>
     <r>
@@ -2354,6 +2574,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个房间很</t>
     </r>
     <r>
@@ -2431,6 +2658,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我</t>
     </r>
     <r>
@@ -2508,6 +2742,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我明天</t>
     </r>
     <r>
@@ -2581,10 +2822,21 @@
     <t>rán</t>
   </si>
   <si>
-    <t>Nhưng, vậy nên</t>
-  </si>
-  <si>
-    <r>
+    <t>Đương nhiên</t>
+  </si>
+  <si>
+    <r>
+      <t>你说得对，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>然</t>
     </r>
     <r>
@@ -2595,49 +2847,49 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>后我们去吃饭。(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rán</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">hòu wǒmen qù chīfàn.) – </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sau đó</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chúng ta đi ăn.</t>
+      <t>而我不同意。(Nǐ shuō de duì，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'ér wǒ bù tóngyì.) – Bạn nói đúng, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đương nhiên</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tôi không đồng ý.</t>
     </r>
   </si>
   <si>
@@ -2651,6 +2903,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这是一种热带</t>
     </r>
     <r>
@@ -2728,6 +2987,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他</t>
     </r>
     <r>
@@ -2805,6 +3071,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我昨天</t>
     </r>
     <r>
@@ -2882,6 +3155,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他是个善良的</t>
     </r>
     <r>
@@ -2959,6 +3239,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他</t>
     </r>
     <r>
@@ -3036,6 +3323,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我</t>
     </r>
     <r>
@@ -3113,6 +3407,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请</t>
     </r>
     <r>
@@ -3190,6 +3491,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我</t>
     </r>
     <r>
@@ -3267,6 +3575,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>今天天气</t>
     </r>
     <r>
@@ -3344,6 +3659,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你</t>
     </r>
     <r>
@@ -3421,6 +3743,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他想</t>
     </r>
     <r>
@@ -3498,6 +3827,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我</t>
     </r>
     <r>
@@ -3575,6 +3911,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>妈</t>
     </r>
     <r>
@@ -3641,6 +3985,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你怎么</t>
     </r>
     <r>
@@ -3697,6 +4048,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他</t>
     </r>
     <r>
@@ -4719,8 +5077,8 @@
   <sheetPr/>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G35" sqref="F37 G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5446,7 +5804,7 @@
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>147</v>
       </c>
     </row>
